--- a/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
+++ b/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\01_orther_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE96D4-2C47-491C-B773-5C9245430EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48648D-1D4A-4759-B7FB-E73D141E0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T2P3企参盘" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="耐药-病原对应关系" sheetId="7" r:id="rId4"/>
     <sheet name="T2P3耐药-病原对应关系" sheetId="6" r:id="rId5"/>
     <sheet name="标准" sheetId="4" r:id="rId6"/>
+    <sheet name="感染1000标准" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="702">
   <si>
     <t>企参名称</t>
   </si>
@@ -2346,6 +2347,14 @@
   </si>
   <si>
     <t>1000 CFU/mL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染1000TA不合格原因</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人内参RPK &gt; 200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2930,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
@@ -9484,8 +9493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F599B-77DC-4674-A28A-8153677F959E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10235,4 +10244,228 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CBC6F0-F9D5-4513-BAD7-E6AC58F80A94}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
+++ b/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\01_orther_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48648D-1D4A-4759-B7FB-E73D141E0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D5AE4-41C9-43B8-BF6B-2D83BC1411ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="702">
   <si>
     <t>企参名称</t>
   </si>
@@ -10248,10 +10248,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CBC6F0-F9D5-4513-BAD7-E6AC58F80A94}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F10" sqref="D8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10260,12 +10260,11 @@
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>70</v>
       </c>
@@ -10276,9 +10275,8 @@
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="19" t="s">
         <v>71</v>
@@ -10290,16 +10288,13 @@
         <v>88</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>77</v>
       </c>
@@ -10313,16 +10308,13 @@
         <v>80</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>120</v>
       </c>
@@ -10335,17 +10327,14 @@
       <c r="D4" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -10358,17 +10347,14 @@
       <c r="D5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -10381,17 +10367,14 @@
       <c r="D6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
@@ -10404,17 +10387,14 @@
       <c r="D7" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>99</v>
+      <c r="E7" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
@@ -10428,16 +10408,13 @@
         <v>83</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>61</v>
       </c>
@@ -10451,19 +10428,16 @@
         <v>80</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="17" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
+++ b/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\01_orther_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D5AE4-41C9-43B8-BF6B-2D83BC1411ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062CB70A-C006-4A6D-BD67-4C14DCD5FD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="495" windowWidth="27540" windowHeight="15105" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T2P3企参盘" sheetId="1" r:id="rId1"/>
@@ -2564,7 +2564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2648,14 +2648,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9493,8 +9499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F599B-77DC-4674-A28A-8153677F959E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9502,7 +9508,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="33.75" customWidth="1"/>
   </cols>
@@ -9553,21 +9559,21 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -9736,23 +9742,23 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="10" t="s">
         <v>71</v>
       </c>
@@ -10250,7 +10256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CBC6F0-F9D5-4513-BAD7-E6AC58F80A94}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="D8:F10"/>
     </sheetView>
   </sheetViews>

--- a/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
+++ b/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\01_orther_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report - 优化版本\01_orther_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062CB70A-C006-4A6D-BD67-4C14DCD5FD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDBBDD8-909D-4A0E-8193-5722D8EE37D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="495" windowWidth="27540" windowHeight="15105" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T2P3企参盘" sheetId="1" r:id="rId1"/>
@@ -2633,6 +2633,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2648,20 +2654,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2979,7 +2979,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3002,7 +3002,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3110,7 +3110,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3128,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3148,7 +3148,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3204,7 +3204,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3294,7 +3294,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
@@ -3312,7 +3312,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3350,7 +3350,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
@@ -3368,7 +3368,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
@@ -9497,10 +9497,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F599B-77DC-4674-A28A-8153677F959E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9525,20 +9528,20 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="24" t="s">
         <v>71</v>
       </c>
@@ -9559,21 +9562,21 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -9742,23 +9745,23 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="10" t="s">
         <v>71</v>
       </c>
@@ -9952,23 +9955,23 @@
       <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="19" t="s">
         <v>71</v>
       </c>
@@ -10254,10 +10257,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CBC6F0-F9D5-4513-BAD7-E6AC58F80A94}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="D8:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10271,19 +10277,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="19" t="s">
         <v>71</v>
       </c>

--- a/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
+++ b/01_orther_info/副本质量部流程更新内容-T2P3企参盘-20240910.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report - 优化版本\01_orther_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Demo_win8\QC_check_report - 优化版本\01_orther_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDBBDD8-909D-4A0E-8193-5722D8EE37D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94418B40-373D-4DE6-BCCB-D9866D4774A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T2P3企参盘" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="703">
   <si>
     <t>企参名称</t>
   </si>
@@ -2355,6 +2366,10 @@
   </si>
   <si>
     <t>目标人内参RPK &gt; 200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴性参考品</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2564,7 +2579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2661,6 +2676,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2949,16 +2982,16 @@
       <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +3011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
@@ -3001,7 +3034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3019,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3037,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -3055,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -3073,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -3091,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -3109,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -3127,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
@@ -3147,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
@@ -3165,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -3183,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
@@ -3203,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -3221,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -3239,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
         <v>34</v>
@@ -3257,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="2" t="s">
         <v>36</v>
@@ -3275,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>37</v>
@@ -3293,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="2" t="s">
         <v>39</v>
@@ -3311,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="2" t="s">
         <v>40</v>
@@ -3329,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>42</v>
       </c>
@@ -3349,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="2" t="s">
         <v>44</v>
@@ -3367,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
@@ -3385,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -3399,7 +3432,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -3433,39 +3466,39 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3484,22 +3517,22 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="168.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -3507,12 +3540,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -3531,16 +3564,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="22.08203125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>399</v>
       </c>
@@ -3563,7 +3596,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>406</v>
       </c>
@@ -3589,7 +3622,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>409</v>
       </c>
@@ -3615,7 +3648,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>410</v>
       </c>
@@ -3641,7 +3674,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -3667,7 +3700,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>412</v>
       </c>
@@ -3693,7 +3726,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>413</v>
       </c>
@@ -3719,7 +3752,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>414</v>
       </c>
@@ -3745,7 +3778,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>415</v>
       </c>
@@ -3771,7 +3804,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>416</v>
       </c>
@@ -3797,7 +3830,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>417</v>
       </c>
@@ -3823,7 +3856,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -3849,7 +3882,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>419</v>
       </c>
@@ -3875,7 +3908,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -3901,7 +3934,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>421</v>
       </c>
@@ -3927,7 +3960,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>422</v>
       </c>
@@ -3953,7 +3986,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>423</v>
       </c>
@@ -3979,7 +4012,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>427</v>
       </c>
@@ -4005,7 +4038,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>428</v>
       </c>
@@ -4031,7 +4064,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>430</v>
       </c>
@@ -4057,7 +4090,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>432</v>
       </c>
@@ -4083,7 +4116,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>434</v>
       </c>
@@ -4109,7 +4142,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>435</v>
       </c>
@@ -4135,7 +4168,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>437</v>
       </c>
@@ -4161,7 +4194,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>441</v>
       </c>
@@ -4187,7 +4220,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>443</v>
       </c>
@@ -4213,7 +4246,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>445</v>
       </c>
@@ -4239,7 +4272,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -4265,7 +4298,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>449</v>
       </c>
@@ -4291,7 +4324,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>454</v>
       </c>
@@ -4317,7 +4350,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>455</v>
       </c>
@@ -4343,7 +4376,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>457</v>
       </c>
@@ -4369,7 +4402,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>459</v>
       </c>
@@ -4395,7 +4428,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>460</v>
       </c>
@@ -4421,7 +4454,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>462</v>
       </c>
@@ -4447,7 +4480,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -4473,7 +4506,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>466</v>
       </c>
@@ -4499,7 +4532,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>469</v>
       </c>
@@ -4525,7 +4558,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>470</v>
       </c>
@@ -4551,7 +4584,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -4577,7 +4610,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>474</v>
       </c>
@@ -4603,7 +4636,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -4629,7 +4662,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>479</v>
       </c>
@@ -4655,7 +4688,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>480</v>
       </c>
@@ -4681,7 +4714,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>483</v>
       </c>
@@ -4707,7 +4740,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>485</v>
       </c>
@@ -4733,7 +4766,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>487</v>
       </c>
@@ -4759,7 +4792,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>489</v>
       </c>
@@ -4785,7 +4818,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>490</v>
       </c>
@@ -4811,7 +4844,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -4837,7 +4870,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>494</v>
       </c>
@@ -4863,7 +4896,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>497</v>
       </c>
@@ -4889,7 +4922,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>498</v>
       </c>
@@ -4915,7 +4948,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>500</v>
       </c>
@@ -4941,7 +4974,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>501</v>
       </c>
@@ -4967,7 +5000,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>504</v>
       </c>
@@ -4993,7 +5026,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>505</v>
       </c>
@@ -5019,7 +5052,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>506</v>
       </c>
@@ -5045,7 +5078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>509</v>
       </c>
@@ -5071,7 +5104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -5097,7 +5130,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>515</v>
       </c>
@@ -5123,7 +5156,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>516</v>
       </c>
@@ -5149,7 +5182,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>517</v>
       </c>
@@ -5175,7 +5208,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>519</v>
       </c>
@@ -5201,7 +5234,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>520</v>
       </c>
@@ -5227,7 +5260,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>521</v>
       </c>
@@ -5253,7 +5286,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>523</v>
       </c>
@@ -5279,7 +5312,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>524</v>
       </c>
@@ -5305,7 +5338,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>525</v>
       </c>
@@ -5331,7 +5364,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -5357,7 +5390,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>528</v>
       </c>
@@ -5383,7 +5416,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>529</v>
       </c>
@@ -5409,7 +5442,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>530</v>
       </c>
@@ -5435,7 +5468,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>533</v>
       </c>
@@ -5461,7 +5494,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>534</v>
       </c>
@@ -5487,7 +5520,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>536</v>
       </c>
@@ -5513,7 +5546,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>537</v>
       </c>
@@ -5539,7 +5572,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>539</v>
       </c>
@@ -5565,7 +5598,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>540</v>
       </c>
@@ -5591,7 +5624,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -5617,7 +5650,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>543</v>
       </c>
@@ -5643,7 +5676,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>546</v>
       </c>
@@ -5669,7 +5702,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>547</v>
       </c>
@@ -5695,7 +5728,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>549</v>
       </c>
@@ -5721,7 +5754,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>550</v>
       </c>
@@ -5747,7 +5780,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>551</v>
       </c>
@@ -5773,7 +5806,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>552</v>
       </c>
@@ -5799,7 +5832,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>553</v>
       </c>
@@ -5825,7 +5858,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>554</v>
       </c>
@@ -5851,7 +5884,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>558</v>
       </c>
@@ -5877,7 +5910,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>559</v>
       </c>
@@ -5903,7 +5936,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>560</v>
       </c>
@@ -5929,7 +5962,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>561</v>
       </c>
@@ -5955,7 +5988,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>562</v>
       </c>
@@ -5981,7 +6014,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>563</v>
       </c>
@@ -6007,7 +6040,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>564</v>
       </c>
@@ -6033,7 +6066,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>568</v>
       </c>
@@ -6059,7 +6092,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>570</v>
       </c>
@@ -6085,7 +6118,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>572</v>
       </c>
@@ -6111,7 +6144,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>573</v>
       </c>
@@ -6137,7 +6170,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>574</v>
       </c>
@@ -6163,7 +6196,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>575</v>
       </c>
@@ -6189,7 +6222,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>576</v>
       </c>
@@ -6215,7 +6248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>577</v>
       </c>
@@ -6241,7 +6274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>578</v>
       </c>
@@ -6267,7 +6300,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>581</v>
       </c>
@@ -6293,7 +6326,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>582</v>
       </c>
@@ -6319,7 +6352,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>585</v>
       </c>
@@ -6345,7 +6378,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>586</v>
       </c>
@@ -6371,7 +6404,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>589</v>
       </c>
@@ -6397,7 +6430,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>590</v>
       </c>
@@ -6423,7 +6456,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>594</v>
       </c>
@@ -6449,7 +6482,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>596</v>
       </c>
@@ -6475,7 +6508,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>599</v>
       </c>
@@ -6501,7 +6534,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>600</v>
       </c>
@@ -6527,7 +6560,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>602</v>
       </c>
@@ -6553,7 +6586,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>603</v>
       </c>
@@ -6579,7 +6612,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>604</v>
       </c>
@@ -6605,7 +6638,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>605</v>
       </c>
@@ -6631,7 +6664,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>606</v>
       </c>
@@ -6657,7 +6690,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>608</v>
       </c>
@@ -6683,7 +6716,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>609</v>
       </c>
@@ -6709,7 +6742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>610</v>
       </c>
@@ -6735,7 +6768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>611</v>
       </c>
@@ -6761,7 +6794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>612</v>
       </c>
@@ -6787,7 +6820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>613</v>
       </c>
@@ -6813,7 +6846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>614</v>
       </c>
@@ -6839,7 +6872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>615</v>
       </c>
@@ -6865,7 +6898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>616</v>
       </c>
@@ -6891,7 +6924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>617</v>
       </c>
@@ -6917,7 +6950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>618</v>
       </c>
@@ -6943,7 +6976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>619</v>
       </c>
@@ -6969,7 +7002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>620</v>
       </c>
@@ -6995,7 +7028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>620</v>
       </c>
@@ -7021,7 +7054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>620</v>
       </c>
@@ -7047,7 +7080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>620</v>
       </c>
@@ -7073,7 +7106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>620</v>
       </c>
@@ -7099,7 +7132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>620</v>
       </c>
@@ -7125,7 +7158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>620</v>
       </c>
@@ -7151,7 +7184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>620</v>
       </c>
@@ -7177,7 +7210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>620</v>
       </c>
@@ -7203,7 +7236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>620</v>
       </c>
@@ -7229,7 +7262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>620</v>
       </c>
@@ -7255,7 +7288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>633</v>
       </c>
@@ -7281,7 +7314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>635</v>
       </c>
@@ -7307,7 +7340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>636</v>
       </c>
@@ -7333,7 +7366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>637</v>
       </c>
@@ -7359,7 +7392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>638</v>
       </c>
@@ -7385,7 +7418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>639</v>
       </c>
@@ -7411,7 +7444,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>640</v>
       </c>
@@ -7437,7 +7470,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>641</v>
       </c>
@@ -7463,7 +7496,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>642</v>
       </c>
@@ -7489,7 +7522,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>643</v>
       </c>
@@ -7515,7 +7548,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>644</v>
       </c>
@@ -7541,7 +7574,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>645</v>
       </c>
@@ -7567,7 +7600,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>649</v>
       </c>
@@ -7593,7 +7626,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>651</v>
       </c>
@@ -7619,7 +7652,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>653</v>
       </c>
@@ -7645,7 +7678,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>655</v>
       </c>
@@ -7671,7 +7704,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>658</v>
       </c>
@@ -7697,7 +7730,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>661</v>
       </c>
@@ -7723,7 +7756,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>662</v>
       </c>
@@ -7749,7 +7782,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>663</v>
       </c>
@@ -7775,7 +7808,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>664</v>
       </c>
@@ -7801,7 +7834,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>665</v>
       </c>
@@ -7827,7 +7860,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>666</v>
       </c>
@@ -7867,14 +7900,14 @@
       <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="39.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="154.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -7927,7 +7960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>368</v>
       </c>
@@ -7981,7 +8014,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>368</v>
       </c>
@@ -8035,7 +8068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>368</v>
       </c>
@@ -8089,7 +8122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>368</v>
       </c>
@@ -8143,7 +8176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>368</v>
       </c>
@@ -8197,7 +8230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>368</v>
       </c>
@@ -8251,7 +8284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>368</v>
       </c>
@@ -8305,7 +8338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -8359,7 +8392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>368</v>
       </c>
@@ -8413,7 +8446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>368</v>
       </c>
@@ -8467,7 +8500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>368</v>
       </c>
@@ -8521,7 +8554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>368</v>
       </c>
@@ -8575,7 +8608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -8629,7 +8662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -8683,7 +8716,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>368</v>
       </c>
@@ -8737,7 +8770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>368</v>
       </c>
@@ -8791,7 +8824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -8845,7 +8878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>368</v>
       </c>
@@ -8898,7 +8931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>368</v>
       </c>
@@ -8951,7 +8984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>368</v>
       </c>
@@ -9004,7 +9037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -9057,7 +9090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>368</v>
       </c>
@@ -9111,7 +9144,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -9165,7 +9198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -9219,7 +9252,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>368</v>
       </c>
@@ -9273,7 +9306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>368</v>
       </c>
@@ -9327,7 +9360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>368</v>
       </c>
@@ -9381,7 +9414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -9435,7 +9468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -9502,21 +9535,21 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>92</v>
       </c>
@@ -9527,7 +9560,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>70</v>
       </c>
@@ -9540,7 +9573,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" s="24" t="s">
         <v>71</v>
@@ -9561,7 +9594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>75</v>
       </c>
@@ -9578,11 +9611,11 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -9601,17 +9634,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="23" t="s">
@@ -9624,17 +9657,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -9647,17 +9680,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="23" t="s">
@@ -9670,11 +9703,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -9693,17 +9726,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -9716,11 +9749,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -9739,12 +9772,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>70</v>
       </c>
@@ -9760,7 +9793,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="10" t="s">
         <v>71</v>
@@ -9781,11 +9814,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -9804,17 +9837,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="42" t="s">
         <v>83</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -9827,17 +9860,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="42" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -9850,17 +9883,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="42" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -9873,11 +9906,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -9896,17 +9929,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="42" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -9919,11 +9952,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -9942,7 +9975,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -9954,7 +9987,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>70</v>
       </c>
@@ -9970,7 +10003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="19" t="s">
         <v>71</v>
@@ -9992,11 +10025,11 @@
       </c>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -10016,17 +10049,17 @@
       </c>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="43" t="s">
         <v>121</v>
       </c>
       <c r="E28" s="18" t="s">
@@ -10040,17 +10073,17 @@
       </c>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="18" t="s">
@@ -10064,17 +10097,17 @@
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E30" s="18" t="s">
@@ -10088,11 +10121,11 @@
       </c>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -10112,17 +10145,17 @@
       </c>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="17" t="s">
@@ -10136,11 +10169,11 @@
       </c>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -10160,82 +10193,82 @@
       </c>
       <c r="H33" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -10262,21 +10295,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>70</v>
       </c>
@@ -10288,7 +10321,7 @@
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="19" t="s">
         <v>71</v>
@@ -10306,7 +10339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>77</v>
       </c>
@@ -10326,7 +10359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>120</v>
       </c>
@@ -10346,7 +10379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -10366,7 +10399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -10386,7 +10419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
@@ -10406,7 +10439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
@@ -10426,7 +10459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>61</v>
       </c>
